--- a/outputs/HRT/gridsearch_results/gridsearch_Logistic Regression_results.xlsx
+++ b/outputs/HRT/gridsearch_results/gridsearch_Logistic Regression_results.xlsx
@@ -628,7 +628,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'classifier__C': 1, 'classifier__l1_ratio': 0, 'classifier__max_iter': 1000, 'classifier__penalty': 'elasticnet', 'classifier__solver': 'saga', 'scaler': QuantileTransformer(n_quantiles=32)}</t>
+          <t>{'classifier__C': 0.1, 'classifier__l1_ratio': 0, 'classifier__max_iter': 1000, 'classifier__penalty': 'elasticnet', 'classifier__solver': 'saga', 'scaler': QuantileTransformer(n_quantiles=32)}</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9414213562373096</v>
+        <v>0.9825741858350554</v>
       </c>
       <c r="E8" t="n">
-        <v>0.117157287525381</v>
+        <v>0.03485162832988924</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
